--- a/NformTester/NformTester/keywordscripts/TST808_NinthDeviceParametersSelectionFromBottomToTop.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST808_NinthDeviceParametersSelectionFromBottomToTop.xlsx
@@ -3660,9 +3660,6 @@
     <t>;Clear operation.</t>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3680,10 +3677,6 @@
     <t>;Add one device.</t>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -3831,6 +3824,12 @@
   <si>
     <t>Pass</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
   </si>
 </sst>
 </file>
@@ -4358,7 +4357,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4448,7 +4449,7 @@
         <v>766</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4489,7 +4490,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4520,7 +4521,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4545,7 +4546,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4570,7 +4571,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="5"/>
@@ -4589,7 +4590,7 @@
         <v>763</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -4608,13 +4609,13 @@
         <v>795</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>804</v>
+        <v>849</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>798</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>799</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>779</v>
@@ -4636,10 +4637,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F9" s="5">
         <v>2</v>
@@ -4661,7 +4662,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -4728,7 +4729,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>798</v>
+        <v>850</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -4804,7 +4805,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="5"/>
@@ -4836,7 +4837,7 @@
         <v>575</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H16" s="11">
         <v>9</v>
@@ -4860,7 +4861,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>574</v>
@@ -4869,7 +4870,7 @@
         <v>575</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H17" s="11">
         <v>8</v>
@@ -4902,7 +4903,7 @@
         <v>575</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H18" s="11">
         <v>7</v>
@@ -4937,7 +4938,7 @@
         <v>575</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H19" s="11">
         <v>6</v>
@@ -4970,7 +4971,7 @@
         <v>575</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H20" s="11">
         <v>5</v>
@@ -5003,7 +5004,7 @@
         <v>575</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H21" s="11">
         <v>4</v>
@@ -5032,7 +5033,7 @@
         <v>575</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H22" s="11">
         <v>3</v>
@@ -5061,7 +5062,7 @@
         <v>575</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H23" s="11">
         <v>2</v>
@@ -5081,10 +5082,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F24" s="5">
         <v>2</v>
@@ -5104,7 +5105,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="5"/>
@@ -5126,7 +5127,7 @@
         <v>788</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>17</v>
@@ -5151,7 +5152,7 @@
         <v>788</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>17</v>
@@ -5198,10 +5199,10 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F29" s="5">
         <v>2</v>
@@ -5313,10 +5314,10 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>577</v>
@@ -5325,7 +5326,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -5339,10 +5340,10 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>185</v>
@@ -5363,7 +5364,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>583</v>
@@ -5387,10 +5388,10 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>95</v>
@@ -6101,7 +6102,7 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="L4" t="s">
         <v>95</v>
@@ -6983,7 +6984,7 @@
     </row>
     <row r="10" spans="1:83">
       <c r="A10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -7512,7 +7513,7 @@
         <v>568</v>
       </c>
       <c r="AU15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="BB15" t="s">
         <v>608</v>
@@ -8044,7 +8045,7 @@
         <v>418</v>
       </c>
       <c r="AQ26" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BB26" t="s">
         <v>617</v>
@@ -8966,7 +8967,7 @@
         <v>754</v>
       </c>
       <c r="E82" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AO82" t="s">
         <v>332</v>
@@ -8974,10 +8975,10 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E83" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AO83" t="s">
         <v>360</v>
@@ -8985,7 +8986,7 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E84" t="s">
         <v>102</v>
@@ -9044,7 +9045,7 @@
     </row>
     <row r="91" spans="1:41">
       <c r="E91" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AO91" t="s">
         <v>478</v>
@@ -9052,7 +9053,7 @@
     </row>
     <row r="92" spans="1:41">
       <c r="E92" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AO92" t="s">
         <v>479</v>
@@ -9060,7 +9061,7 @@
     </row>
     <row r="93" spans="1:41">
       <c r="E93" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AO93" t="s">
         <v>480</v>
@@ -9068,7 +9069,7 @@
     </row>
     <row r="94" spans="1:41">
       <c r="E94" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AO94" t="s">
         <v>481</v>
@@ -9076,7 +9077,7 @@
     </row>
     <row r="95" spans="1:41">
       <c r="E95" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AO95" t="s">
         <v>482</v>
@@ -9084,7 +9085,7 @@
     </row>
     <row r="96" spans="1:41">
       <c r="E96" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AO96" t="s">
         <v>483</v>
@@ -9092,7 +9093,7 @@
     </row>
     <row r="97" spans="5:41">
       <c r="E97" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AO97" t="s">
         <v>484</v>
@@ -9100,7 +9101,7 @@
     </row>
     <row r="98" spans="5:41">
       <c r="E98" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AO98" t="s">
         <v>485</v>
@@ -9108,7 +9109,7 @@
     </row>
     <row r="99" spans="5:41">
       <c r="E99" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AO99" t="s">
         <v>486</v>
@@ -9124,7 +9125,7 @@
     </row>
     <row r="101" spans="5:41">
       <c r="E101" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AO101" t="s">
         <v>488</v>
@@ -9132,7 +9133,7 @@
     </row>
     <row r="102" spans="5:41">
       <c r="E102" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AO102" t="s">
         <v>382</v>
@@ -9156,7 +9157,7 @@
     </row>
     <row r="105" spans="5:41">
       <c r="E105" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AO105" t="s">
         <v>491</v>
@@ -9164,7 +9165,7 @@
     </row>
     <row r="106" spans="5:41">
       <c r="E106" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AO106" t="s">
         <v>492</v>
@@ -9172,7 +9173,7 @@
     </row>
     <row r="107" spans="5:41">
       <c r="E107" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AO107" t="s">
         <v>493</v>
@@ -9180,7 +9181,7 @@
     </row>
     <row r="108" spans="5:41">
       <c r="E108" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AO108" t="s">
         <v>494</v>
@@ -9204,7 +9205,7 @@
     </row>
     <row r="111" spans="5:41">
       <c r="E111" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AO111" t="s">
         <v>497</v>
@@ -9212,7 +9213,7 @@
     </row>
     <row r="112" spans="5:41">
       <c r="E112" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AO112" t="s">
         <v>498</v>
@@ -9220,7 +9221,7 @@
     </row>
     <row r="113" spans="5:41">
       <c r="E113" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AO113" t="s">
         <v>499</v>
@@ -9228,7 +9229,7 @@
     </row>
     <row r="114" spans="5:41">
       <c r="E114" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AO114" t="s">
         <v>500</v>
@@ -12801,7 +12802,7 @@
         <v>5</v>
       </c>
       <c r="DG2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="DH2" t="s">
         <v>111</v>
@@ -15764,7 +15765,7 @@
         <v>6</v>
       </c>
       <c r="AS3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AT3" t="s">
         <v>4</v>
@@ -15887,10 +15888,10 @@
         <v>6</v>
       </c>
       <c r="CH3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CI3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CJ3" t="s">
         <v>6</v>
@@ -15917,7 +15918,7 @@
         <v>6</v>
       </c>
       <c r="CR3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CS3" t="s">
         <v>6</v>
@@ -15932,10 +15933,10 @@
         <v>6</v>
       </c>
       <c r="CW3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CY3" t="s">
         <v>6</v>
@@ -16043,7 +16044,7 @@
         <v>5</v>
       </c>
       <c r="EH3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="EI3" t="s">
         <v>4</v>
@@ -16208,7 +16209,7 @@
         <v>4</v>
       </c>
       <c r="GK3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="GL3" t="s">
         <v>6</v>
@@ -16265,7 +16266,7 @@
         <v>6</v>
       </c>
       <c r="HD3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="HE3" t="s">
         <v>6</v>
@@ -16478,10 +16479,10 @@
         <v>6</v>
       </c>
       <c r="JW3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="JX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="JY3" t="s">
         <v>4</v>
@@ -16688,7 +16689,7 @@
         <v>6</v>
       </c>
       <c r="MO3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="MP3" t="s">
         <v>4</v>
@@ -16727,7 +16728,7 @@
         <v>6</v>
       </c>
       <c r="NB3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="NC3" t="s">
         <v>6</v>
@@ -16778,10 +16779,10 @@
         <v>4</v>
       </c>
       <c r="NS3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="NT3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="NU3" t="s">
         <v>4</v>
@@ -16871,7 +16872,7 @@
         <v>4</v>
       </c>
       <c r="OX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="OY3" t="s">
         <v>6</v>
@@ -17042,7 +17043,7 @@
         <v>6</v>
       </c>
       <c r="RC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="RD3" t="s">
         <v>4</v>
@@ -17057,7 +17058,7 @@
         <v>4</v>
       </c>
       <c r="RH3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="RI3" t="s">
         <v>6</v>
@@ -17126,7 +17127,7 @@
         <v>4</v>
       </c>
       <c r="SE3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="SF3" t="s">
         <v>4</v>
@@ -17153,13 +17154,13 @@
         <v>4</v>
       </c>
       <c r="SN3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="SO3" t="s">
         <v>4</v>
       </c>
       <c r="SP3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="SQ3" t="s">
         <v>6</v>
@@ -17321,7 +17322,7 @@
         <v>4</v>
       </c>
       <c r="UR3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="US3" t="s">
         <v>6</v>
@@ -17774,7 +17775,7 @@
         <v>3</v>
       </c>
       <c r="AAM3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AAN3" t="s">
         <v>4</v>
@@ -17795,10 +17796,10 @@
         <v>6</v>
       </c>
       <c r="AAT3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AAU3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AAV3" t="s">
         <v>4</v>
@@ -17843,7 +17844,7 @@
         <v>6</v>
       </c>
       <c r="ABJ3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ABK3" t="s">
         <v>6</v>
@@ -17885,7 +17886,7 @@
         <v>3</v>
       </c>
       <c r="ABX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ABY3" t="s">
         <v>3</v>
@@ -18035,7 +18036,7 @@
         <v>4</v>
       </c>
       <c r="ADV3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ADW3" t="s">
         <v>6</v>
@@ -18056,7 +18057,7 @@
         <v>6</v>
       </c>
       <c r="AEC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AED3" t="s">
         <v>6</v>
@@ -18119,7 +18120,7 @@
         <v>6</v>
       </c>
       <c r="AEX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AEY3" t="s">
         <v>3</v>
@@ -18131,10 +18132,10 @@
         <v>4</v>
       </c>
       <c r="AFB3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AFC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AFD3" t="s">
         <v>6</v>
@@ -18242,7 +18243,7 @@
         <v>4</v>
       </c>
       <c r="AGM3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AGN3" t="s">
         <v>6</v>
@@ -18254,7 +18255,7 @@
         <v>6</v>
       </c>
       <c r="AGQ3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AGR3" t="s">
         <v>6</v>
@@ -18317,7 +18318,7 @@
         <v>6</v>
       </c>
       <c r="AHL3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AHM3" t="s">
         <v>6</v>
@@ -18467,7 +18468,7 @@
         <v>6</v>
       </c>
       <c r="AJJ3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AJK3" t="s">
         <v>5</v>
@@ -18524,7 +18525,7 @@
         <v>6</v>
       </c>
       <c r="AKC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AKD3" t="s">
         <v>5</v>
@@ -18578,7 +18579,7 @@
         <v>6</v>
       </c>
       <c r="AKU3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AKV3" t="s">
         <v>6</v>
@@ -18608,7 +18609,7 @@
         <v>112</v>
       </c>
       <c r="ALE3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ALF3" t="s">
         <v>4</v>
@@ -18925,7 +18926,7 @@
         <v>7</v>
       </c>
       <c r="AS4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AT4" t="s">
         <v>5</v>
@@ -19048,10 +19049,10 @@
         <v>7</v>
       </c>
       <c r="CH4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CI4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CJ4" t="s">
         <v>7</v>
@@ -19078,7 +19079,7 @@
         <v>7</v>
       </c>
       <c r="CR4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="CS4" t="s">
         <v>7</v>
@@ -19093,10 +19094,10 @@
         <v>7</v>
       </c>
       <c r="CW4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="CY4" t="s">
         <v>7</v>
@@ -19204,7 +19205,7 @@
         <v>6</v>
       </c>
       <c r="EH4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="EI4" t="s">
         <v>5</v>
@@ -19369,7 +19370,7 @@
         <v>5</v>
       </c>
       <c r="GK4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="GL4" t="s">
         <v>7</v>
@@ -19426,7 +19427,7 @@
         <v>7</v>
       </c>
       <c r="HD4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="HE4" t="s">
         <v>7</v>
@@ -19639,10 +19640,10 @@
         <v>7</v>
       </c>
       <c r="JW4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="JX4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="JY4" t="s">
         <v>5</v>
@@ -19849,7 +19850,7 @@
         <v>7</v>
       </c>
       <c r="MO4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="MP4" t="s">
         <v>5</v>
@@ -19888,7 +19889,7 @@
         <v>7</v>
       </c>
       <c r="NB4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="NC4" t="s">
         <v>7</v>
@@ -19939,10 +19940,10 @@
         <v>5</v>
       </c>
       <c r="NS4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="NT4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="NU4" t="s">
         <v>5</v>
@@ -20032,7 +20033,7 @@
         <v>5</v>
       </c>
       <c r="OX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="OY4" t="s">
         <v>7</v>
@@ -20203,7 +20204,7 @@
         <v>7</v>
       </c>
       <c r="RC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="RD4" t="s">
         <v>5</v>
@@ -20218,7 +20219,7 @@
         <v>5</v>
       </c>
       <c r="RH4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="RI4" t="s">
         <v>7</v>
@@ -20287,7 +20288,7 @@
         <v>5</v>
       </c>
       <c r="SE4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="SF4" t="s">
         <v>5</v>
@@ -20314,13 +20315,13 @@
         <v>5</v>
       </c>
       <c r="SN4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="SO4" t="s">
         <v>5</v>
       </c>
       <c r="SP4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="SQ4" t="s">
         <v>7</v>
@@ -20482,7 +20483,7 @@
         <v>5</v>
       </c>
       <c r="UR4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="US4" t="s">
         <v>7</v>
@@ -20935,7 +20936,7 @@
         <v>4</v>
       </c>
       <c r="AAM4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AAN4" t="s">
         <v>5</v>
@@ -20956,10 +20957,10 @@
         <v>7</v>
       </c>
       <c r="AAT4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AAU4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AAV4" t="s">
         <v>5</v>
@@ -21004,7 +21005,7 @@
         <v>7</v>
       </c>
       <c r="ABJ4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ABK4" t="s">
         <v>7</v>
@@ -21046,7 +21047,7 @@
         <v>4</v>
       </c>
       <c r="ABX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ABY4" t="s">
         <v>4</v>
@@ -21196,7 +21197,7 @@
         <v>5</v>
       </c>
       <c r="ADV4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ADW4" t="s">
         <v>7</v>
@@ -21217,7 +21218,7 @@
         <v>7</v>
       </c>
       <c r="AEC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AED4" t="s">
         <v>7</v>
@@ -21280,7 +21281,7 @@
         <v>7</v>
       </c>
       <c r="AEX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AEY4" t="s">
         <v>4</v>
@@ -21292,10 +21293,10 @@
         <v>5</v>
       </c>
       <c r="AFB4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AFC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AFD4" t="s">
         <v>7</v>
@@ -21403,7 +21404,7 @@
         <v>5</v>
       </c>
       <c r="AGM4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AGN4" t="s">
         <v>7</v>
@@ -21415,7 +21416,7 @@
         <v>7</v>
       </c>
       <c r="AGQ4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AGR4" t="s">
         <v>7</v>
@@ -21478,7 +21479,7 @@
         <v>7</v>
       </c>
       <c r="AHL4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AHM4" t="s">
         <v>7</v>
@@ -21628,7 +21629,7 @@
         <v>7</v>
       </c>
       <c r="AJJ4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AJK4" t="s">
         <v>6</v>
@@ -21685,7 +21686,7 @@
         <v>7</v>
       </c>
       <c r="AKC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AKD4" t="s">
         <v>6</v>
@@ -21739,7 +21740,7 @@
         <v>7</v>
       </c>
       <c r="AKU4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AKV4" t="s">
         <v>7</v>
@@ -21769,7 +21770,7 @@
         <v>5</v>
       </c>
       <c r="ALE4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ALF4" t="s">
         <v>5</v>
@@ -22212,7 +22213,7 @@
         <v>5</v>
       </c>
       <c r="CI5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="CJ5" t="s">
         <v>8</v>
@@ -22254,7 +22255,7 @@
         <v>8</v>
       </c>
       <c r="CW5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="CX5" t="s">
         <v>3</v>
@@ -23475,7 +23476,7 @@
         <v>6</v>
       </c>
       <c r="SN5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="SO5" t="s">
         <v>6</v>
@@ -24453,7 +24454,7 @@
         <v>6</v>
       </c>
       <c r="AFB5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AFC5" t="s">
         <v>3</v>
@@ -24564,7 +24565,7 @@
         <v>6</v>
       </c>
       <c r="AGM5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AGN5" t="s">
         <v>8</v>
@@ -24576,7 +24577,7 @@
         <v>8</v>
       </c>
       <c r="AGQ5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AGR5" t="s">
         <v>8</v>
@@ -25145,7 +25146,7 @@
         <v>7</v>
       </c>
       <c r="AS6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AT6" t="s">
         <v>7</v>
@@ -25157,13 +25158,13 @@
         <v>98</v>
       </c>
       <c r="CR6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CW6" t="s">
         <v>98</v>
       </c>
       <c r="CX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="DG6" t="s">
         <v>8</v>
@@ -25310,7 +25311,7 @@
         <v>7</v>
       </c>
       <c r="GK6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="GP6" t="s">
         <v>7</v>
@@ -25586,10 +25587,10 @@
         <v>7</v>
       </c>
       <c r="NS6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="NT6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="NU6" t="s">
         <v>7</v>
@@ -25640,7 +25641,7 @@
         <v>7</v>
       </c>
       <c r="OX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="PD6" t="s">
         <v>7</v>
@@ -25706,7 +25707,7 @@
         <v>7</v>
       </c>
       <c r="RC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="RD6" t="s">
         <v>7</v>
@@ -25745,7 +25746,7 @@
         <v>7</v>
       </c>
       <c r="SE6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="SF6" t="s">
         <v>7</v>
@@ -25763,7 +25764,7 @@
         <v>7</v>
       </c>
       <c r="SP6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="TF6" t="s">
         <v>7</v>
@@ -26051,10 +26052,10 @@
         <v>7</v>
       </c>
       <c r="AAT6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AAU6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AAV6" t="s">
         <v>7</v>
@@ -26087,7 +26088,7 @@
         <v>7</v>
       </c>
       <c r="ABJ6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ABN6" t="s">
         <v>7</v>
@@ -26099,7 +26100,7 @@
         <v>5</v>
       </c>
       <c r="ABX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ABY6" t="s">
         <v>5</v>
@@ -26150,7 +26151,7 @@
         <v>7</v>
       </c>
       <c r="ADV6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ADY6" t="s">
         <v>5</v>
@@ -26162,13 +26163,13 @@
         <v>5</v>
       </c>
       <c r="AEC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AEG6" t="s">
         <v>7</v>
       </c>
       <c r="AEX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AEY6" t="s">
         <v>5</v>
@@ -26183,7 +26184,7 @@
         <v>98</v>
       </c>
       <c r="AFC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AFP6" t="s">
         <v>5</v>
@@ -26234,7 +26235,7 @@
         <v>7</v>
       </c>
       <c r="AHL6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AHX6" t="s">
         <v>7</v>
@@ -26267,7 +26268,7 @@
         <v>7</v>
       </c>
       <c r="AJJ6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AJK6" t="s">
         <v>8</v>
@@ -26279,7 +26280,7 @@
         <v>7</v>
       </c>
       <c r="AKC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AKD6" t="s">
         <v>8</v>
@@ -26294,7 +26295,7 @@
         <v>7</v>
       </c>
       <c r="AKU6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AKW6" t="s">
         <v>8</v>
@@ -26306,7 +26307,7 @@
         <v>7</v>
       </c>
       <c r="ALE6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ALF6" t="s">
         <v>7</v>
@@ -27704,7 +27705,7 @@
         <v>7</v>
       </c>
       <c r="CH9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CI9" t="s">
         <v>7</v>
@@ -27719,13 +27720,13 @@
         <v>7</v>
       </c>
       <c r="EH9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="GK9" t="s">
         <v>7</v>
       </c>
       <c r="HD9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="JP9" t="s">
         <v>8</v>
@@ -27734,16 +27735,16 @@
         <v>8</v>
       </c>
       <c r="JW9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="JX9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="MO9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NB9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NL9" t="s">
         <v>8</v>
@@ -27761,7 +27762,7 @@
         <v>7</v>
       </c>
       <c r="RH9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SE9" t="s">
         <v>7</v>
@@ -27773,13 +27774,13 @@
         <v>7</v>
       </c>
       <c r="UR9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAL9" t="s">
         <v>8</v>
       </c>
       <c r="AAM9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAT9" t="s">
         <v>7</v>
@@ -27859,7 +27860,7 @@
         <v>8</v>
       </c>
       <c r="CH10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CI10" t="s">
         <v>8</v>
@@ -27874,25 +27875,25 @@
         <v>8</v>
       </c>
       <c r="EH10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="GK10" t="s">
         <v>8</v>
       </c>
       <c r="HD10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="JW10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="JX10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="MO10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NB10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NS10" t="s">
         <v>8</v>
@@ -27907,7 +27908,7 @@
         <v>8</v>
       </c>
       <c r="RH10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SE10" t="s">
         <v>8</v>
@@ -27919,10 +27920,10 @@
         <v>8</v>
       </c>
       <c r="UR10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAM10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAT10" t="s">
         <v>8</v>
@@ -27975,180 +27976,180 @@
     </row>
     <row r="11" spans="1:1053">
       <c r="AS11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CI11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CR11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CW11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="GK11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NS11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NT11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="OX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="RC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SE11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SN11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SP11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAT11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAU11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ABJ11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ABX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ADV11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AEC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AEX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AFB11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AFC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AGM11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AGQ11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AHL11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AJJ11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AKC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AKU11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ALE11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="12" spans="1:1053">
       <c r="AS12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CI12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CR12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CW12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="GK12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NS12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NT12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="OX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="RC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SE12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SN12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SP12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAT12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAU12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ABJ12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ABX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ADV12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AEC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AEX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AFB12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AFC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AGM12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AGQ12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AHL12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AJJ12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AKC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AKU12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ALE12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST808_NinthDeviceParametersSelectionFromBottomToTop.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST808_NinthDeviceParametersSelectionFromBottomToTop.xlsx
@@ -3822,14 +3822,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
+    <t>Running Range</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0$</t>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4357,8 +4359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4370,7 +4372,7 @@
     <col min="6" max="6" width="26.625" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
     <col min="10" max="10" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4540,7 +4542,7 @@
         <v>771</v>
       </c>
       <c r="B6" s="10">
-        <v>41129</v>
+        <v>41452</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4587,11 +4589,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B8" s="4" t="s">
         <v>848</v>
       </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4628,11 +4628,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>774</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4656,8 +4654,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>774</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -4677,10 +4679,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -4740,7 +4740,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -4769,7 +4769,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -4798,7 +4798,7 @@
     </row>
     <row r="15" spans="1:15" ht="15">
       <c r="A15" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -4821,7 +4821,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -4853,10 +4853,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>782</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -4888,7 +4888,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -4919,11 +4919,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>784</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -4955,9 +4953,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>784</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>774</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5020,6 +5020,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
